--- a/Forces.xlsx
+++ b/Forces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnwob\GitHub\ShearFlowThinSections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30DC723-3CB0-4931-81F7-0C345C10824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F560DF-03E6-4D8C-9797-163D1E321BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10635" yWindow="5325" windowWidth="26835" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="5715" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,8 +392,8 @@
         <v>1</v>
       </c>
       <c r="B2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -404,7 +404,8 @@
         <v>4</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0.25</v>

--- a/Forces.xlsx
+++ b/Forces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnwob\GitHub\ShearFlowThinSections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F560DF-03E6-4D8C-9797-163D1E321BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E50D3C-79C5-43C0-BF1C-1846810F5AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="5715" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5790" yWindow="3615" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,8 +392,8 @@
         <v>1</v>
       </c>
       <c r="B2" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -404,8 +404,8 @@
         <v>4</v>
       </c>
       <c r="B3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0.25</v>
